--- a/e1squad2.xlsx
+++ b/e1squad2.xlsx
@@ -14573,7 +14573,7 @@
         <v>858</v>
       </c>
       <c r="D97" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="E97" t="s">
         <v>1547</v>
@@ -39570,26 +39570,26 @@
       <c r="T344" t="n">
         <v>0.0</v>
       </c>
-      <c r="U344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA344" t="e">
-        <v>#N/A</v>
+      <c r="U344" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V344" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W344" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X344" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>1.0</v>
       </c>
       <c r="AB344" t="n">
         <v>0.0</v>
@@ -39606,8 +39606,8 @@
       <c r="AF344" t="n">
         <v>0.0</v>
       </c>
-      <c r="AG344" t="e">
-        <v>#N/A</v>
+      <c r="AG344" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="345">
@@ -41338,7 +41338,7 @@
         <v>1111</v>
       </c>
       <c r="D362" t="s">
-        <v>1473</v>
+        <v>1513</v>
       </c>
       <c r="E362" t="s">
         <v>1547</v>
